--- a/DragPrediction/NL2VP DragX/1T/n/8/test.xlsx
+++ b/DragPrediction/NL2VP DragX/1T/n/8/test.xlsx
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>1.235294118E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.11135213023752893</v>
+        <v>0.16841256357752965</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E200)</f>
-        <v>8.4842681586204751</v>
+        <v>12.831881596019199</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.54795077651788016</v>
+        <v>0.82873847847207649</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.11288470671405373</v>
+        <v>0.17073048181348605</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.54463875787980998</v>
+        <v>0.82372927435299825</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.1133883045438967</v>
+        <v>0.17149213946076247</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.54138245043570254</v>
+        <v>0.81880432964570882</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.11546240101322729</v>
+        <v>0.17462907004989403</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.53967126490045048</v>
+        <v>0.81621627729202828</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.11785505018552479</v>
+        <v>0.17824779005092795</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.44922207101543804</v>
+        <v>0.67941799078235476</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.11835970163566116</v>
+        <v>0.1790110412276166</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.3539310018263554</v>
+        <v>0.5352966954470596</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.11736948641465703</v>
+        <v>0.17751340769777693</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>7.5790885324227286E-2</v>
+        <v>0.11462858650333928</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>8.9373700761037192E-2</v>
+        <v>0.1351716759209734</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.24591979536037192</v>
+        <v>0.37193705304744423</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>9.2819128964008263E-2</v>
+        <v>0.1403826529812858</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.24811692854365289</v>
+        <v>0.3752600683425113</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.10178142736954958</v>
+        <v>0.15393752298515861</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.2428796025903967</v>
+        <v>0.36733896716377751</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.11419764011360331</v>
+        <v>0.17271620475522984</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.26351572798071077</v>
+        <v>0.39854971070210665</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.11642424199470248</v>
+        <v>0.17608378946207437</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.24887417116583058</v>
+        <v>0.37640534657813263</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.11191023045665703</v>
+        <v>0.16925665240130022</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>0.23384059409341737</v>
+        <v>0.35366807833634212</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.11582654525478099</v>
+        <v>0.17517981357946313</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>0.12495246517456612</v>
+        <v>0.18898215005399491</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>8.6197680816805788E-2</v>
+        <v>0.13036816062548334</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1.8703434565475206E-2</v>
+        <v>2.82876794198469E-2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>8.8515253417500009E-2</v>
+        <v>0.1338733323911907</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>4.1198799561260331E-2</v>
+        <v>6.23103970766265E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>9.4721011604764468E-2</v>
+        <v>0.14325912180563707</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>5.0518348754652893E-2</v>
+        <v>7.6405584727712528E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>0.10102135875805786</v>
+        <v>0.15278797063188901</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>5.5610168928632235E-2</v>
+        <v>8.4106618259324584E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>9.3115890512380173E-2</v>
+        <v>0.14083148474611992</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>0.12962477295219421</v>
+        <v>0.19604869946777861</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>0.10727521593685538</v>
+        <v>0.16224650651694439</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.17459554949898348</v>
+        <v>0.26406395654603509</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>0.13509428741475618</v>
+        <v>0.2043209700583774</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>-5.3242684129388429E-2</v>
+        <v>-8.0525957670066234E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>7.8134978119438023E-2</v>
+        <v>0.11817386826905808</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>-2.3785543464037193E-2</v>
+        <v>-3.5974025304395946E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>7.9791734773797529E-2</v>
+        <v>0.12067960062271518</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>-2.5761081514140496E-2</v>
+        <v>-3.8961892952308438E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>8.2648401590342979E-2</v>
+        <v>0.12500011591806726</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-2.9483709865462809E-2</v>
+        <v>-4.4592116483328836E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>8.4986621881747937E-2</v>
+        <v>0.12853651591907767</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-3.7978560235103313E-2</v>
+        <v>-5.7440002957587909E-2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>8.2593335636714879E-2</v>
+        <v>0.12491683238863172</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-8.1383869383495872E-2</v>
+        <v>-0.12308759650575611</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>7.8548348481210756E-2</v>
+        <v>0.11879906297511907</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-3.0159268328305788E-2</v>
+        <v>-4.5613852954209007E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>9.906396094571901E-2</v>
+        <v>0.14982753886633726</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-5.5295242639698351E-2</v>
+        <v>-8.3630313553306135E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>7.5396627144520653E-2</v>
+        <v>0.11403229767963947</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>8.0737820456466949E-2</v>
+        <v>0.12211049121135931</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>3.8536929985004138E-2</v>
+        <v>5.8284499428417423E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>7.2159913770830586E-2</v>
+        <v>0.10913698767824083</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>5.6224258040095038E-2</v>
+        <v>8.5035386494884055E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>7.6777719159173557E-2</v>
+        <v>0.1161211059155304</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>6.6012660096446282E-2</v>
+        <v>9.9839682381466802E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>8.1258594747371904E-2</v>
+        <v>0.12289812709393727</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>6.1749883908979342E-2</v>
+        <v>9.339252179138946E-2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E113" si="1">A67*$E$1</f>
-        <v>7.5263511613190087E-2</v>
+        <v>0.11383096944428785</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>5.9191236451078516E-2</v>
+        <v>8.9522740613813226E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>3.4723567774462812E-3</v>
+        <v>5.2517047073828401E-3</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>5.5737738660123971E-2</v>
+        <v>8.4299558847615003E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>-3.2555045691086776E-2</v>
+        <v>-4.9237304131714857E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>8.2314632650115696E-2</v>
+        <v>0.12449531297674656</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>1.3858324892132233E-2</v>
+        <v>2.0959778829517921E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>8.1522604223057862E-2</v>
+        <v>0.1232974235646396</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>1.6546232774553717E-2</v>
+        <v>2.502505765420884E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>7.9833928591128103E-2</v>
+        <v>0.12074341591685106</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>1.072853355922314E-2</v>
+        <v>1.6226181181106639E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>7.6408690693314046E-2</v>
+        <v>0.11556297532713564</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>9.4647201011033074E-3</v>
+        <v>1.4314748827619342E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>7.291592308553306E-2</v>
+        <v>0.11028040061974398</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>-2.8573202244793388E-3</v>
+        <v>-4.3215035306464799E-3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>7.2153730898256205E-2</v>
+        <v>0.10912763650176756</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>-2.8195042403057851E-2</v>
+        <v>-4.2643094129830798E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>3.5950586198305787E-3</v>
+        <v>5.4372829427299808E-3</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>-5.2620574435537195E-3</v>
+        <v>-7.9585058846268E-3</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>7.4363368675871913E-2</v>
+        <v>0.11246956414978124</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>-6.1047217184479342E-2</v>
+        <v>-9.2329785908732878E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>7.4163229825723154E-2</v>
+        <v>0.11216686767910651</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>-5.9852150408603311E-2</v>
+        <v>-9.0522328261157636E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>7.3447241746971079E-2</v>
+        <v>0.11108398414938535</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>-6.4175963064694211E-2</v>
+        <v>-9.7061802380673121E-2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>7.0951321450723151E-2</v>
+        <v>0.10730907356007151</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>-6.7862670314851242E-2</v>
+        <v>-0.10263769767638388</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>6.7391987909677681E-2</v>
+        <v>0.10192582238206284</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>-7.4886789268909085E-2</v>
+        <v>-0.11326120238530152</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>5.9537926533198351E-2</v>
+        <v>9.0047085908080693E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>-7.4262302803698346E-2</v>
+        <v>-0.1123167088556199</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>2.7667913719995867E-2</v>
+        <v>4.1845847659014779E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>-0.11202910986262811</v>
+        <v>-0.16943644946017511</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>1.0436468380376034E-2</v>
+        <v>1.5784452357451021E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>-0.11076166999047521</v>
+        <v>-0.16751953240080389</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>1.5571674841165289E-2</v>
+        <v>2.3551104712611241E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>-0.10567241444263636</v>
+        <v>-0.15982237769272234</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>1.8120766208033059E-2</v>
+        <v>2.7406432949006878E-2</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>-9.6722244921867775E-2</v>
+        <v>-0.14628585180650183</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>1.908038560253306E-2</v>
+        <v>2.8857792361186262E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>-8.1624094810388431E-2</v>
+        <v>-0.12345092121174228</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>6.8026626700661156E-3</v>
+        <v>1.0288567061763119E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>-1.1922710066789256E-2</v>
+        <v>-1.8032292358093258E-2</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2395,5 +2395,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>